--- a/base_table/sheet.xlsx
+++ b/base_table/sheet.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkFlow\data_sql\base_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED576E7-A574-4444-8101-F5C2B1EB4E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6664E385-FF9B-4193-938B-F1956D2927B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2291" yWindow="3256" windowWidth="24042" windowHeight="12684" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6211" yWindow="2943" windowWidth="24042" windowHeight="12246" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="structure" sheetId="1" r:id="rId1"/>
+    <sheet name="拆解" sheetId="2" r:id="rId2"/>
+    <sheet name="复刻" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="186">
   <si>
     <t>表格结构</t>
   </si>
@@ -427,6 +428,323 @@
   </si>
   <si>
     <t>注意问题，边缘性问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>底表拆解</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>底表复刻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gamehub</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>df</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>df1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>df2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>df3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>df4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要结构</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>次要结构</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_pack</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_local_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_version</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>install_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>install_local_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>device_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">not null </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>interger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+  <si>
+    <t>ta_app_start</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_game</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lobby_enter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_client</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"$part_date" between '2025-12-29' and '2026-01-10'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#app_version like '%1.8%'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rn = 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_keepn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lt_cnt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_diff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>left join</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_label</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>local_date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_local_date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>on a.role_id = b.role_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>,enter_game</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>,lobby_enter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>,login_client</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinct</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">from </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_event4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从哪个表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_diff('day',reg_local_date,local_date)+1 as day_diff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>from t</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>group by role_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>,count(local_date) filter(day_diff&lt;=7) as lt_cnt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>,count(distinct role_id) filter(day_diff=6)is_keep7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.role_id,a.local_date，reg_local_date,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t = a left join b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2 = 对t查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>b = 对df查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a = 对v_event4查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联逻辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>df.role_id = t2.role_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>df是主表,t2是从表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、确认主从</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、关联字段和唯一性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、join+on</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、聚合前先处理NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间表、结果表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>派生表</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +752,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,16 +795,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -501,11 +847,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -531,11 +963,145 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -546,6 +1112,118 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F58ACED8-15F9-47E8-8375-F7644FC0637F}" name="表2" displayName="表2" ref="B4:D11" totalsRowShown="0">
+  <autoFilter ref="B4:D11" xr:uid="{F58ACED8-15F9-47E8-8375-F7644FC0637F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8B6F282E-D81B-4A46-A2BB-DD20723B75FE}" name="名称"/>
+    <tableColumn id="2" xr3:uid="{53194F51-165B-4A41-B69B-54FF7C55DE7B}" name="数据类型"/>
+    <tableColumn id="3" xr3:uid="{37DC2158-09C9-46E9-ACE7-37DCC7B2C7C2}" name="主键"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4C368232-86AB-49AE-8E20-06B434ABB9CD}" name="表12" displayName="表12" ref="G16:J19" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="G16:J19" xr:uid="{4C368232-86AB-49AE-8E20-06B434ABB9CD}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A932B12A-8D56-474C-88DB-5B37EB3C8DBD}" name="名称"/>
+    <tableColumn id="2" xr3:uid="{9C4FF9F9-13FF-4DEA-8CCC-74F8E77D7E99}" name="数据类型"/>
+    <tableColumn id="3" xr3:uid="{F1E3AE3A-EC08-44E5-A0A7-7BCD6838FC93}" name="主键"/>
+    <tableColumn id="4" xr3:uid="{0A9631FA-E8EA-4B84-9007-24830FC907CC}" name="从哪个表"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AE568F35-24A8-410C-8AC4-18C881EEF447}" name="表3" displayName="表3" ref="G4:I9" totalsRowShown="0">
+  <autoFilter ref="G4:I9" xr:uid="{AE568F35-24A8-410C-8AC4-18C881EEF447}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{380626D3-1E51-4DA6-8CC0-01C94C8B37D7}" name="名称"/>
+    <tableColumn id="2" xr3:uid="{1AA0F997-DF0E-4D73-BF34-A44A8E3CD294}" name="数据类型"/>
+    <tableColumn id="3" xr3:uid="{616D15D0-B639-4CD1-A628-1BBA0CF1695D}" name="主键"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D8D1EDE6-EEF3-48D2-BE50-B07DCBF45F84}" name="表4" displayName="表4" ref="L4:L8" totalsRowShown="0">
+  <autoFilter ref="L4:L8" xr:uid="{D8D1EDE6-EEF3-48D2-BE50-B07DCBF45F84}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{316C7D5B-EFF3-4B17-9D0C-9C8B202C63BB}" name="v_event4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3ED6D271-E52E-4CCE-B2F6-804D59A7343A}" name="表6" displayName="表6" ref="L16:L24" totalsRowShown="0">
+  <autoFilter ref="L16:L24" xr:uid="{3ED6D271-E52E-4CCE-B2F6-804D59A7343A}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{5A27B88E-C670-440E-9681-5920F7CFBF32}" name="a = 对v_event4查询"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{81942C13-7AF7-4AA7-8FFE-AFD327A409C5}" name="表7" displayName="表7" ref="N16:N22" totalsRowShown="0">
+  <autoFilter ref="N16:N22" xr:uid="{81942C13-7AF7-4AA7-8FFE-AFD327A409C5}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{8420FA49-DF0A-47AF-95CC-1DF50D31C6F8}" name="b = 对df查询"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E9E769CE-AA66-4165-9E77-BF151A977B78}" name="表8" displayName="表8" ref="P16:P24" totalsRowShown="0">
+  <autoFilter ref="P16:P24" xr:uid="{E9E769CE-AA66-4165-9E77-BF151A977B78}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{30CD71B7-3E72-4087-A515-0CDD29E0999D}" name="t = a left join b"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4910E71E-4324-4598-8382-DA028A29877D}" name="表9" displayName="表9" ref="R16:R22" totalsRowShown="0">
+  <autoFilter ref="R16:R22" xr:uid="{4910E71E-4324-4598-8382-DA028A29877D}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{C713FD41-E672-4EB9-BB3A-662FCA8D45B3}" name="t2 = 对t查询"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{15058144-9861-4117-B923-B43FBAF102A4}" name="表10" displayName="表10" ref="B16:E25" totalsRowShown="0">
+  <autoFilter ref="B16:E25" xr:uid="{15058144-9861-4117-B923-B43FBAF102A4}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{FB0484A2-3E0A-4DCF-AD09-C3F6F62D263A}" name="名称" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{83A61A82-DEAE-49EA-BCF2-CCCA21B9C9C1}" name="数据类型" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{BB8AF549-6A87-4238-9720-38F24B4F7BEF}" name="主键"/>
+    <tableColumn id="4" xr3:uid="{15E160B2-796C-4B82-A03D-F515729F5C64}" name="从哪个表"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4D6F6DAD-742A-401F-B4E8-E326BDB6AD66}" name="表11" displayName="表11" ref="N4:P7" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+  <autoFilter ref="N4:P7" xr:uid="{4D6F6DAD-742A-401F-B4E8-E326BDB6AD66}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{51ACCF14-A6CF-43CF-83E7-A53D8258754C}" name="列1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{0493F518-8E12-4BCB-B6B5-083FE45428E5}" name="列2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B9B1D7DC-F383-4AAD-9CA2-D188AAB1D9A3}" name="列3" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -838,8 +1516,8 @@
   </sheetPr>
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.25"/>
@@ -1509,14 +2187,571 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B32E0BF-D0C8-4F91-AD3D-99F5C6DE755F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1"/>
+    <col min="12" max="12" width="25.109375" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" customWidth="1"/>
+    <col min="16" max="16" width="57.5546875" customWidth="1"/>
+    <col min="18" max="18" width="54.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" t="s">
+        <v>165</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" t="s">
+        <v>141</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" t="s">
+        <v>142</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" t="s">
+        <v>135</v>
+      </c>
+      <c r="L8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s">
+        <v>176</v>
+      </c>
+      <c r="N16" t="s">
+        <v>175</v>
+      </c>
+      <c r="P16" t="s">
+        <v>173</v>
+      </c>
+      <c r="R16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>89</v>
+      </c>
+      <c r="N17" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" t="s">
+        <v>89</v>
+      </c>
+      <c r="R17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="P18" t="s">
+        <v>172</v>
+      </c>
+      <c r="R18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" t="s">
+        <v>157</v>
+      </c>
+      <c r="N19" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" t="s">
+        <v>167</v>
+      </c>
+      <c r="R19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" t="s">
+        <v>158</v>
+      </c>
+      <c r="P20" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" t="s">
+        <v>140</v>
+      </c>
+      <c r="N21" t="s">
+        <v>164</v>
+      </c>
+      <c r="P21" t="s">
+        <v>153</v>
+      </c>
+      <c r="R21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s">
+        <v>160</v>
+      </c>
+      <c r="N22" t="s">
+        <v>109</v>
+      </c>
+      <c r="P22" t="s">
+        <v>155</v>
+      </c>
+      <c r="R22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" t="s">
+        <v>180</v>
+      </c>
+      <c r="I23" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23" t="s">
+        <v>161</v>
+      </c>
+      <c r="P23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" t="s">
+        <v>178</v>
+      </c>
+      <c r="L24" t="s">
+        <v>162</v>
+      </c>
+      <c r="P24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>182</v>
+      </c>
+      <c r="I26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="10">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813F13B3-9E69-4149-BD8E-C2702C44ED12}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/base_table/sheet.xlsx
+++ b/base_table/sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkFlow\data_sql\base_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6664E385-FF9B-4193-938B-F1956D2927B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F958002-DF65-4A1F-AE35-304C9F141B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6211" yWindow="2943" windowWidth="24042" windowHeight="12246" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3206" yWindow="3469" windowWidth="24041" windowHeight="12246" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="structure" sheetId="1" r:id="rId1"/>
@@ -937,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -963,15 +963,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -979,7 +978,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1215,12 +1214,12 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4D6F6DAD-742A-401F-B4E8-E326BDB6AD66}" name="表11" displayName="表11" ref="N4:P7" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4D6F6DAD-742A-401F-B4E8-E326BDB6AD66}" name="表11" displayName="表11" ref="N4:P7" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="N4:P7" xr:uid="{4D6F6DAD-742A-401F-B4E8-E326BDB6AD66}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{51ACCF14-A6CF-43CF-83E7-A53D8258754C}" name="列1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{0493F518-8E12-4BCB-B6B5-083FE45428E5}" name="列2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B9B1D7DC-F383-4AAD-9CA2-D188AAB1D9A3}" name="列3" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{51ACCF14-A6CF-43CF-83E7-A53D8258754C}" name="列1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{0493F518-8E12-4BCB-B6B5-083FE45428E5}" name="列2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{B9B1D7DC-F383-4AAD-9CA2-D188AAB1D9A3}" name="列3" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2187,10 +2186,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B32E0BF-D0C8-4F91-AD3D-99F5C6DE755F}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.25"/>
@@ -2210,7 +2210,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2261,13 +2261,13 @@
       <c r="L4" t="s">
         <v>165</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="22" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2290,11 +2290,11 @@
       <c r="L5" t="s">
         <v>140</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -2312,11 +2312,11 @@
       <c r="L6" t="s">
         <v>141</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -2337,11 +2337,11 @@
       <c r="L7" t="s">
         <v>142</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -2420,16 +2420,16 @@
       <c r="E16" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="26" t="s">
         <v>166</v>
       </c>
       <c r="L16" t="s">
@@ -2455,7 +2455,7 @@
       <c r="D17" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>109</v>
       </c>
       <c r="G17" s="11" t="s">
@@ -2489,13 +2489,13 @@
         <v>131</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="21" t="s">
         <v>151</v>
       </c>
       <c r="I18" s="15" t="s">
@@ -2527,13 +2527,13 @@
       <c r="D19" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="24" t="s">
         <v>131</v>
       </c>
       <c r="J19" s="18" t="s">
@@ -2560,7 +2560,7 @@
         <v>132</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>109</v>
       </c>
       <c r="L20" t="s">
@@ -2584,7 +2584,7 @@
         <v>132</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>109</v>
       </c>
       <c r="L21" t="s">
@@ -2608,7 +2608,7 @@
         <v>132</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>109</v>
       </c>
       <c r="G22" s="10" t="s">
@@ -2637,7 +2637,7 @@
       <c r="D23" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>109</v>
       </c>
       <c r="G23" t="s">
@@ -2738,6 +2738,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813F13B3-9E69-4149-BD8E-C2702C44ED12}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
